--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egebo\OneDrive\Desktop\IPA Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\010-IPA\IPA-Dokumentation\Tag1\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDFAA39-6810-48FC-B973-BFD0B6CF413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7BB04-0802-4CDF-951D-D283EF7A9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{12392D87-E49D-47D9-B85F-F502EA2D4A8F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +35,287 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Arbeitspaket</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
+  </si>
+  <si>
+    <t>Tag 3</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>Tag 5</t>
+  </si>
+  <si>
+    <t>Tag 6</t>
+  </si>
+  <si>
+    <t>Tag 7</t>
+  </si>
+  <si>
+    <t>Tag 8</t>
+  </si>
+  <si>
+    <t>Tag 9</t>
+  </si>
+  <si>
+    <t>Tag 10</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Total h</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>IPERKA Phase</t>
+  </si>
+  <si>
+    <t>Do 25.04.2024</t>
+  </si>
+  <si>
+    <t>Dauer in Stunden</t>
+  </si>
+  <si>
+    <t>Fr 26.04.2024</t>
+  </si>
+  <si>
+    <t>02.05.2024</t>
+  </si>
+  <si>
+    <t>03.05.2024</t>
+  </si>
+  <si>
+    <t>06.05.2024</t>
+  </si>
+  <si>
+    <t>07.05.2024</t>
+  </si>
+  <si>
+    <t>08.05.2024</t>
+  </si>
+  <si>
+    <t>10.05.2024</t>
+  </si>
+  <si>
+    <t>08:00-10:00</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Expertenbesuche</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Rechtschribung und Formatierung</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Mo 29.04.2024</t>
+  </si>
+  <si>
+    <t>Di 30.04.2024</t>
+  </si>
+  <si>
+    <t>Kriterienkatalog analysieren</t>
+  </si>
+  <si>
+    <t>Informieren</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Planen</t>
+  </si>
+  <si>
+    <t>Isolation von Add-Ons</t>
+  </si>
+  <si>
+    <t>Entscheiden</t>
+  </si>
+  <si>
+    <t>Lösungsweg festlegen Eingehender Mails in bestehende Tickets</t>
+  </si>
+  <si>
+    <t>Realisiseren</t>
+  </si>
+  <si>
+    <t>Aufbau von Dokument</t>
+  </si>
+  <si>
+    <t>Testkonzept</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Analyse des bestehenden Source-Codes von HelpDeskZ.</t>
+  </si>
+  <si>
+    <t>Infoschaffung E-Mail Protokolle und Programme</t>
+  </si>
+  <si>
+    <t>UML Diagramm für Matching von Nachrichten</t>
+  </si>
+  <si>
+    <t>Darstellung Ticket Work-Flow eines Unternehmens</t>
+  </si>
+  <si>
+    <t>Lokale E-Mail server aufstellen</t>
+  </si>
+  <si>
+    <t>Einlesen von eingehender E-Mails</t>
+  </si>
+  <si>
+    <t>Weitere Empfänger beim Antworten von Tickets</t>
+  </si>
+  <si>
+    <t>Frontend Einlesen eingehende E-Mails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Weiter Empfänger </t>
+  </si>
+  <si>
+    <t>Kontrollieren</t>
+  </si>
+  <si>
+    <t>Testfälle erstellen</t>
+  </si>
+  <si>
+    <t>Testfälle Testen</t>
+  </si>
+  <si>
+    <t>Lösungsweg Antworten zur Mehrer Personen</t>
+  </si>
+  <si>
+    <t>Konzept erstellen davor, danach</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>Mehere Personen Antowrten Auswertung</t>
+  </si>
+  <si>
+    <t>Einlesen Mails Auswertung</t>
+  </si>
+  <si>
+    <t>Auswertung von Unit-Tests</t>
+  </si>
+  <si>
+    <t>Reflexion</t>
+  </si>
+  <si>
+    <t>Fazit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +323,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -62,15 +390,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,13 +1103,3661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11761-6EC2-4DAB-B39E-A69729D9BB43}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
+  <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="48"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="42"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="12"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="10"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="10"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="10"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="10"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="10"/>
+    </row>
+    <row r="15" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="10"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="10"/>
+    </row>
+    <row r="17" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="10"/>
+    </row>
+    <row r="18" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="24">
+        <v>4</v>
+      </c>
+      <c r="E18" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="10"/>
+    </row>
+    <row r="19" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="10"/>
+    </row>
+    <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2</v>
+      </c>
+      <c r="E20" s="24">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="10"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="10"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="10"/>
+    </row>
+    <row r="23" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="10"/>
+    </row>
+    <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="10"/>
+    </row>
+    <row r="25" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="10"/>
+    </row>
+    <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="10"/>
+    </row>
+    <row r="27" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="10"/>
+    </row>
+    <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="10"/>
+    </row>
+    <row r="29" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="10"/>
+    </row>
+    <row r="30" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="10"/>
+    </row>
+    <row r="31" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="10"/>
+    </row>
+    <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="10"/>
+    </row>
+    <row r="33" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="10"/>
+    </row>
+    <row r="34" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="24">
+        <v>2</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="10"/>
+    </row>
+    <row r="35" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="10"/>
+    </row>
+    <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="24">
+        <v>8</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="10"/>
+    </row>
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="10"/>
+    </row>
+    <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="24">
+        <v>8</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="10"/>
+    </row>
+    <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="10"/>
+    </row>
+    <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="24">
+        <v>4</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="10"/>
+    </row>
+    <row r="41" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="10"/>
+    </row>
+    <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="24">
+        <v>4</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="10"/>
+    </row>
+    <row r="43" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="10"/>
+    </row>
+    <row r="44" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="24">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="6"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="10"/>
+    </row>
+    <row r="45" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="10"/>
+    </row>
+    <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="24">
+        <v>8</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="10"/>
+    </row>
+    <row r="47" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="10"/>
+    </row>
+    <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="24">
+        <v>2</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="10"/>
+    </row>
+    <row r="49" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="56"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="10"/>
+    </row>
+    <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="56"/>
+      <c r="B50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="24">
+        <v>2</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="6"/>
+      <c r="AQ50" s="6"/>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="10"/>
+    </row>
+    <row r="51" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="56"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="10"/>
+    </row>
+    <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="56"/>
+      <c r="B52" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="24">
+        <v>2</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="10"/>
+    </row>
+    <row r="53" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="56"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="10"/>
+    </row>
+    <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="56"/>
+      <c r="B54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="24">
+        <v>2</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="10"/>
+    </row>
+    <row r="55" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="56"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="10"/>
+    </row>
+    <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="56"/>
+      <c r="B56" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="24">
+        <v>2</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="10"/>
+    </row>
+    <row r="57" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="57"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="6"/>
+      <c r="AS57" s="10"/>
+    </row>
+    <row r="58" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
+      <c r="AS58" s="18"/>
+    </row>
+    <row r="59" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+    </row>
+    <row r="60" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1">
+        <v>80</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="37"/>
+      <c r="AM60" s="38"/>
+      <c r="AN60" s="38"/>
+      <c r="AO60" s="38"/>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="38"/>
+      <c r="AR60" s="38"/>
+      <c r="AS60" s="39"/>
+    </row>
+    <row r="61" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="37"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="37"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="39"/>
+    </row>
+    <row r="62" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="37"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="38"/>
+      <c r="AP62" s="37"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="39"/>
+    </row>
+    <row r="63" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="38"/>
+      <c r="AJ63" s="38"/>
+      <c r="AK63" s="38"/>
+      <c r="AL63" s="37"/>
+      <c r="AM63" s="38"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="38"/>
+      <c r="AP63" s="37"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="38"/>
+      <c r="AS63" s="39"/>
+    </row>
+    <row r="64" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="37"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="38"/>
+      <c r="AL64" s="37"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="38"/>
+      <c r="AO64" s="38"/>
+      <c r="AP64" s="37"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="38"/>
+      <c r="AS64" s="39"/>
+    </row>
+    <row r="65" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="37"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="37"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="38"/>
+      <c r="AS65" s="39"/>
+    </row>
+    <row r="66" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="37"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="38"/>
+      <c r="AK66" s="38"/>
+      <c r="AL66" s="37"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="38"/>
+      <c r="AP66" s="37"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="38"/>
+      <c r="AS66" s="39"/>
+    </row>
+    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="208">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AP62:AS62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="Z65:AC65"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP64:AS64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AC64"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AP65:AS65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\010-IPA\IPA-Dokumentation\Tag1\IPA-Dok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egebo\Desktop\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7BB04-0802-4CDF-951D-D283EF7A9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712833DD-6F7A-4214-B3E9-D2185F610CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>Nr.</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Testkonzept</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Analyse des bestehenden Source-Codes von HelpDeskZ.</t>
   </si>
   <si>
@@ -287,12 +284,6 @@
     <t>Konzept erstellen davor, danach</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Auswertung</t>
   </si>
   <si>
@@ -309,6 +300,18 @@
   </si>
   <si>
     <t>Fazit</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -668,107 +671,113 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,7 +1116,7 @@
   <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,151 +1128,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="46" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="46" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="46" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="48"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="44"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="40" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="40" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="40" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="40" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="40" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="40" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="40" t="s">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="40" t="s">
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="42"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="38"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1392,15 +1401,15 @@
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1443,11 +1452,11 @@
       <c r="AS4" s="12"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -1490,17 +1499,17 @@
       <c r="AS5" s="10"/>
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1543,11 +1552,11 @@
       <c r="AS6" s="10"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1590,17 +1599,17 @@
       <c r="AS7" s="10"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1636,18 +1645,18 @@
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="6"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="11"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
       <c r="AS8" s="10"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1690,17 +1699,17 @@
       <c r="AS9" s="10"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="31">
         <v>1</v>
       </c>
       <c r="F10" s="11"/>
@@ -1745,11 +1754,11 @@
       <c r="AS10" s="10"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="23"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -1792,19 +1801,19 @@
       <c r="AS11" s="22"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="C12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="31">
         <v>1</v>
       </c>
       <c r="F12" s="6"/>
@@ -1849,11 +1858,11 @@
       <c r="AS12" s="10"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1896,17 +1905,17 @@
       <c r="AS13" s="10"/>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="31">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
       <c r="F14" s="6"/>
@@ -1951,11 +1960,11 @@
       <c r="AS14" s="10"/>
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="6"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
@@ -1998,17 +2007,17 @@
       <c r="AS15" s="10"/>
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="31">
         <v>2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="31">
         <v>2</v>
       </c>
       <c r="F16" s="6"/>
@@ -2053,11 +2062,11 @@
       <c r="AS16" s="10"/>
     </row>
     <row r="17" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -2100,19 +2109,19 @@
       <c r="AS17" s="10"/>
     </row>
     <row r="18" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="31">
         <v>4</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="31">
         <v>4.5</v>
       </c>
       <c r="F18" s="6"/>
@@ -2157,11 +2166,11 @@
       <c r="AS18" s="10"/>
     </row>
     <row r="19" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="13"/>
@@ -2204,17 +2213,17 @@
       <c r="AS19" s="10"/>
     </row>
     <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="31">
         <v>2</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="31">
         <v>2</v>
       </c>
       <c r="F20" s="6"/>
@@ -2259,11 +2268,11 @@
       <c r="AS20" s="10"/>
     </row>
     <row r="21" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2306,17 +2315,17 @@
       <c r="AS21" s="10"/>
     </row>
     <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="31">
         <v>2</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2359,11 +2368,11 @@
       <c r="AS22" s="10"/>
     </row>
     <row r="23" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2406,17 +2415,17 @@
       <c r="AS23" s="10"/>
     </row>
     <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="24">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="31">
         <v>2</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2459,11 +2468,11 @@
       <c r="AS24" s="10"/>
     </row>
     <row r="25" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2506,17 +2515,17 @@
       <c r="AS25" s="10"/>
     </row>
     <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="31">
         <v>2</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2559,11 +2568,11 @@
       <c r="AS26" s="10"/>
     </row>
     <row r="27" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2606,14 +2615,14 @@
       <c r="AS27" s="10"/>
     </row>
     <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="31">
         <v>2</v>
       </c>
       <c r="E28" s="15"/>
@@ -2659,10 +2668,10 @@
       <c r="AS28" s="10"/>
     </row>
     <row r="29" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="15"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2706,19 +2715,19 @@
       <c r="AS29" s="10"/>
     </row>
     <row r="30" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="24">
+      <c r="B30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="31">
         <v>1</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -2761,11 +2770,11 @@
       <c r="AS30" s="10"/>
     </row>
     <row r="31" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -2808,17 +2817,17 @@
       <c r="AS31" s="10"/>
     </row>
     <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="31">
         <v>1</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -2861,11 +2870,11 @@
       <c r="AS32" s="10"/>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2908,19 +2917,19 @@
       <c r="AS33" s="10"/>
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="24">
+      <c r="B34" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="31">
         <v>2</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2963,11 +2972,11 @@
       <c r="AS34" s="10"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -3010,17 +3019,17 @@
       <c r="AS35" s="10"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="24">
+      <c r="A36" s="25"/>
+      <c r="B36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="31">
         <v>8</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3063,11 +3072,11 @@
       <c r="AS36" s="10"/>
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3110,17 +3119,17 @@
       <c r="AS37" s="10"/>
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="24">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="31">
         <v>8</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3163,11 +3172,11 @@
       <c r="AS38" s="10"/>
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3210,17 +3219,17 @@
       <c r="AS39" s="10"/>
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="24">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="31">
         <v>4</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -3263,11 +3272,11 @@
       <c r="AS40" s="10"/>
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -3310,17 +3319,17 @@
       <c r="AS41" s="10"/>
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="24">
+      <c r="A42" s="25"/>
+      <c r="B42" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="31">
         <v>4</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -3363,11 +3372,11 @@
       <c r="AS42" s="10"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -3410,19 +3419,19 @@
       <c r="AS43" s="10"/>
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="24">
+      <c r="D44" s="31">
         <v>2</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3465,11 +3474,11 @@
       <c r="AS44" s="10"/>
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -3512,17 +3521,17 @@
       <c r="AS45" s="10"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="24">
+      <c r="A46" s="25"/>
+      <c r="B46" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="31">
         <v>8</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -3565,11 +3574,11 @@
       <c r="AS46" s="10"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="32"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -3612,19 +3621,19 @@
       <c r="AS47" s="10"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="24">
+      <c r="A48" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="31">
         <v>2</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3667,11 +3676,11 @@
       <c r="AS48" s="10"/>
     </row>
     <row r="49" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="56"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3714,17 +3723,17 @@
       <c r="AS49" s="10"/>
     </row>
     <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56"/>
-      <c r="B50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="24">
+      <c r="A50" s="34"/>
+      <c r="B50" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="31">
         <v>2</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -3767,11 +3776,11 @@
       <c r="AS50" s="10"/>
     </row>
     <row r="51" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="56"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -3814,17 +3823,17 @@
       <c r="AS51" s="10"/>
     </row>
     <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="56"/>
-      <c r="B52" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="24">
+      <c r="A52" s="34"/>
+      <c r="B52" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="31">
         <v>2</v>
       </c>
-      <c r="E52" s="24"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -3867,11 +3876,11 @@
       <c r="AS52" s="10"/>
     </row>
     <row r="53" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="56"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -3914,17 +3923,17 @@
       <c r="AS53" s="10"/>
     </row>
     <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="56"/>
-      <c r="B54" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="24">
+      <c r="A54" s="34"/>
+      <c r="B54" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="31">
         <v>2</v>
       </c>
-      <c r="E54" s="24"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -3967,11 +3976,11 @@
       <c r="AS54" s="10"/>
     </row>
     <row r="55" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="56"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -4014,17 +4023,17 @@
       <c r="AS55" s="10"/>
     </row>
     <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="56"/>
-      <c r="B56" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="24">
+      <c r="A56" s="34"/>
+      <c r="B56" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="31">
         <v>2</v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -4060,18 +4069,18 @@
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="6"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="11"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="59"/>
       <c r="AQ56" s="6"/>
       <c r="AR56" s="6"/>
       <c r="AS56" s="10"/>
     </row>
     <row r="57" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="57"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -4217,46 +4226,46 @@
         <v>80</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="38"/>
-      <c r="AF60" s="38"/>
-      <c r="AG60" s="38"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="38"/>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="37"/>
-      <c r="AM60" s="38"/>
-      <c r="AN60" s="38"/>
-      <c r="AO60" s="38"/>
-      <c r="AP60" s="37"/>
-      <c r="AQ60" s="38"/>
-      <c r="AR60" s="38"/>
-      <c r="AS60" s="39"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="51"/>
+      <c r="AM60" s="52"/>
+      <c r="AN60" s="52"/>
+      <c r="AO60" s="52"/>
+      <c r="AP60" s="51"/>
+      <c r="AQ60" s="52"/>
+      <c r="AR60" s="52"/>
+      <c r="AS60" s="53"/>
     </row>
     <row r="61" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
@@ -4264,46 +4273,46 @@
       <c r="C61" s="7"/>
       <c r="D61" s="4"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="38"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="38"/>
-      <c r="AF61" s="38"/>
-      <c r="AG61" s="38"/>
-      <c r="AH61" s="37"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="38"/>
-      <c r="AK61" s="38"/>
-      <c r="AL61" s="37"/>
-      <c r="AM61" s="38"/>
-      <c r="AN61" s="38"/>
-      <c r="AO61" s="38"/>
-      <c r="AP61" s="37"/>
-      <c r="AQ61" s="38"/>
-      <c r="AR61" s="38"/>
-      <c r="AS61" s="39"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="52"/>
+      <c r="AO61" s="52"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="52"/>
+      <c r="AR61" s="52"/>
+      <c r="AS61" s="53"/>
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
@@ -4313,46 +4322,46 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="38"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="38"/>
-      <c r="AF62" s="38"/>
-      <c r="AG62" s="38"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="38"/>
-      <c r="AK62" s="38"/>
-      <c r="AL62" s="37"/>
-      <c r="AM62" s="38"/>
-      <c r="AN62" s="38"/>
-      <c r="AO62" s="38"/>
-      <c r="AP62" s="37"/>
-      <c r="AQ62" s="38"/>
-      <c r="AR62" s="38"/>
-      <c r="AS62" s="39"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="51"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
+      <c r="AO62" s="52"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="52"/>
+      <c r="AS62" s="53"/>
     </row>
     <row r="63" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
@@ -4360,46 +4369,46 @@
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="37"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="38"/>
-      <c r="AG63" s="38"/>
-      <c r="AH63" s="37"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="38"/>
-      <c r="AK63" s="38"/>
-      <c r="AL63" s="37"/>
-      <c r="AM63" s="38"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="38"/>
-      <c r="AP63" s="37"/>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="38"/>
-      <c r="AS63" s="39"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="51"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="51"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="52"/>
+      <c r="AS63" s="53"/>
     </row>
     <row r="64" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
@@ -4407,46 +4416,46 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="37"/>
-      <c r="AE64" s="38"/>
-      <c r="AF64" s="38"/>
-      <c r="AG64" s="38"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="38"/>
-      <c r="AL64" s="37"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="38"/>
-      <c r="AP64" s="37"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="38"/>
-      <c r="AS64" s="39"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="51"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="51"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
+      <c r="AO64" s="52"/>
+      <c r="AP64" s="51"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="52"/>
+      <c r="AS64" s="53"/>
     </row>
     <row r="65" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
@@ -4454,46 +4463,46 @@
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="37"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="37"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="38"/>
-      <c r="AP65" s="37"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="38"/>
-      <c r="AS65" s="39"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+      <c r="AC65" s="52"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="52"/>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="51"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="51"/>
+      <c r="AM65" s="52"/>
+      <c r="AN65" s="52"/>
+      <c r="AO65" s="52"/>
+      <c r="AP65" s="51"/>
+      <c r="AQ65" s="52"/>
+      <c r="AR65" s="52"/>
+      <c r="AS65" s="53"/>
     </row>
     <row r="66" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
@@ -4501,70 +4510,212 @@
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="37"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="37"/>
-      <c r="AI66" s="38"/>
-      <c r="AJ66" s="38"/>
-      <c r="AK66" s="38"/>
-      <c r="AL66" s="37"/>
-      <c r="AM66" s="38"/>
-      <c r="AN66" s="38"/>
-      <c r="AO66" s="38"/>
-      <c r="AP66" s="37"/>
-      <c r="AQ66" s="38"/>
-      <c r="AR66" s="38"/>
-      <c r="AS66" s="39"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="52"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AG66" s="52"/>
+      <c r="AH66" s="51"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="52"/>
+      <c r="AL66" s="51"/>
+      <c r="AM66" s="52"/>
+      <c r="AN66" s="52"/>
+      <c r="AO66" s="52"/>
+      <c r="AP66" s="51"/>
+      <c r="AQ66" s="52"/>
+      <c r="AR66" s="52"/>
+      <c r="AS66" s="53"/>
     </row>
     <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AP65:AS65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="Z65:AC65"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP64:AS64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AC64"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="AP62:AS62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A4:A11"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
@@ -4589,172 +4740,30 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="AP60:AS60"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="R60:U60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="V60:Y60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AP62:AS62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="Z61:AC61"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AH61:AK61"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="Z65:AC65"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AP64:AS64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="R65:U65"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="R64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="Z64:AC64"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="AP65:AS65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="V65:Y65"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AH62:AK62"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egebo\OneDrive\Desktop\IPA Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egebo\Desktop\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDFAA39-6810-48FC-B973-BFD0B6CF413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80415AC-2D52-4219-B0E3-784F8FD56DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{12392D87-E49D-47D9-B85F-F502EA2D4A8F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +35,287 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Arbeitspaket</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
+  </si>
+  <si>
+    <t>Tag 3</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>Tag 5</t>
+  </si>
+  <si>
+    <t>Tag 6</t>
+  </si>
+  <si>
+    <t>Tag 7</t>
+  </si>
+  <si>
+    <t>Tag 8</t>
+  </si>
+  <si>
+    <t>Tag 9</t>
+  </si>
+  <si>
+    <t>Tag 10</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Total h</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>IPERKA Phase</t>
+  </si>
+  <si>
+    <t>Do 25.04.2024</t>
+  </si>
+  <si>
+    <t>Dauer in Stunden</t>
+  </si>
+  <si>
+    <t>Fr 26.04.2024</t>
+  </si>
+  <si>
+    <t>02.05.2024</t>
+  </si>
+  <si>
+    <t>03.05.2024</t>
+  </si>
+  <si>
+    <t>06.05.2024</t>
+  </si>
+  <si>
+    <t>07.05.2024</t>
+  </si>
+  <si>
+    <t>08.05.2024</t>
+  </si>
+  <si>
+    <t>10.05.2024</t>
+  </si>
+  <si>
+    <t>08:00-10:00</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Expertenbesuche</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Rechtschribung und Formatierung</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Mo 29.04.2024</t>
+  </si>
+  <si>
+    <t>Di 30.04.2024</t>
+  </si>
+  <si>
+    <t>Kriterienkatalog analysieren</t>
+  </si>
+  <si>
+    <t>Informieren</t>
+  </si>
+  <si>
+    <t>Zeitplan erstellen</t>
+  </si>
+  <si>
+    <t>Planen</t>
+  </si>
+  <si>
+    <t>Isolation von Add-Ons</t>
+  </si>
+  <si>
+    <t>Entscheiden</t>
+  </si>
+  <si>
+    <t>Lösungsweg festlegen Eingehender Mails in bestehende Tickets</t>
+  </si>
+  <si>
+    <t>Realisiseren</t>
+  </si>
+  <si>
+    <t>Aufbau von Dokument</t>
+  </si>
+  <si>
+    <t>Testkonzept</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Analyse des bestehenden Source-Codes von HelpDeskZ.</t>
+  </si>
+  <si>
+    <t>Infoschaffung E-Mail Protokolle und Programme</t>
+  </si>
+  <si>
+    <t>UML Diagramm für Matching von Nachrichten</t>
+  </si>
+  <si>
+    <t>Darstellung Ticket Work-Flow eines Unternehmens</t>
+  </si>
+  <si>
+    <t>Lokale E-Mail server aufstellen</t>
+  </si>
+  <si>
+    <t>Einlesen von eingehender E-Mails</t>
+  </si>
+  <si>
+    <t>Weitere Empfänger beim Antworten von Tickets</t>
+  </si>
+  <si>
+    <t>Frontend Einlesen eingehende E-Mails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Weiter Empfänger </t>
+  </si>
+  <si>
+    <t>Kontrollieren</t>
+  </si>
+  <si>
+    <t>Testfälle erstellen</t>
+  </si>
+  <si>
+    <t>Testfälle Testen</t>
+  </si>
+  <si>
+    <t>Lösungsweg Antworten zur Mehrer Personen</t>
+  </si>
+  <si>
+    <t>Konzept erstellen davor, danach</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>Mehere Personen Antowrten Auswertung</t>
+  </si>
+  <si>
+    <t>Einlesen Mails Auswertung</t>
+  </si>
+  <si>
+    <t>Auswertung von Unit-Tests</t>
+  </si>
+  <si>
+    <t>Reflexion</t>
+  </si>
+  <si>
+    <t>Fazit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +323,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -62,15 +390,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,13 +1103,3661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11761-6EC2-4DAB-B39E-A69729D9BB43}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
+  <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="48"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="42"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="12"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="10"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="10"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="10"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="10"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="10"/>
+    </row>
+    <row r="15" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="10"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="10"/>
+    </row>
+    <row r="17" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="10"/>
+    </row>
+    <row r="18" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="24">
+        <v>4</v>
+      </c>
+      <c r="E18" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="10"/>
+    </row>
+    <row r="19" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="10"/>
+    </row>
+    <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="24">
+        <v>2</v>
+      </c>
+      <c r="E20" s="24">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="10"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="10"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="10"/>
+    </row>
+    <row r="23" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="10"/>
+    </row>
+    <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="10"/>
+    </row>
+    <row r="25" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="10"/>
+    </row>
+    <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="10"/>
+    </row>
+    <row r="27" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="10"/>
+    </row>
+    <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="10"/>
+    </row>
+    <row r="29" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="10"/>
+    </row>
+    <row r="30" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="10"/>
+    </row>
+    <row r="31" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="10"/>
+    </row>
+    <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="10"/>
+    </row>
+    <row r="33" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="10"/>
+    </row>
+    <row r="34" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="24">
+        <v>2</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="10"/>
+    </row>
+    <row r="35" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="10"/>
+    </row>
+    <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="24">
+        <v>8</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="10"/>
+    </row>
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="10"/>
+    </row>
+    <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="24">
+        <v>8</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="10"/>
+    </row>
+    <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="10"/>
+    </row>
+    <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="24">
+        <v>4</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="10"/>
+    </row>
+    <row r="41" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="10"/>
+    </row>
+    <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="24">
+        <v>4</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="10"/>
+    </row>
+    <row r="43" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="10"/>
+    </row>
+    <row r="44" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="24">
+        <v>2</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="6"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="10"/>
+    </row>
+    <row r="45" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="10"/>
+    </row>
+    <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="24">
+        <v>8</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="10"/>
+    </row>
+    <row r="47" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="10"/>
+    </row>
+    <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="24">
+        <v>2</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="10"/>
+    </row>
+    <row r="49" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="56"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="10"/>
+    </row>
+    <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="56"/>
+      <c r="B50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="24">
+        <v>2</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="6"/>
+      <c r="AQ50" s="6"/>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="10"/>
+    </row>
+    <row r="51" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="56"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="10"/>
+    </row>
+    <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="56"/>
+      <c r="B52" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="24">
+        <v>2</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="10"/>
+    </row>
+    <row r="53" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="56"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="10"/>
+    </row>
+    <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="56"/>
+      <c r="B54" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="24">
+        <v>2</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="10"/>
+    </row>
+    <row r="55" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="56"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="10"/>
+    </row>
+    <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="56"/>
+      <c r="B56" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="24">
+        <v>2</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="10"/>
+    </row>
+    <row r="57" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="57"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="6"/>
+      <c r="AS57" s="10"/>
+    </row>
+    <row r="58" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
+      <c r="AS58" s="18"/>
+    </row>
+    <row r="59" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+    </row>
+    <row r="60" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1">
+        <v>80</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="37"/>
+      <c r="AM60" s="38"/>
+      <c r="AN60" s="38"/>
+      <c r="AO60" s="38"/>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="38"/>
+      <c r="AR60" s="38"/>
+      <c r="AS60" s="39"/>
+    </row>
+    <row r="61" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="37"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="37"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="39"/>
+    </row>
+    <row r="62" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="37"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="38"/>
+      <c r="AP62" s="37"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="39"/>
+    </row>
+    <row r="63" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="38"/>
+      <c r="AJ63" s="38"/>
+      <c r="AK63" s="38"/>
+      <c r="AL63" s="37"/>
+      <c r="AM63" s="38"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="38"/>
+      <c r="AP63" s="37"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="38"/>
+      <c r="AS63" s="39"/>
+    </row>
+    <row r="64" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="37"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="38"/>
+      <c r="AK64" s="38"/>
+      <c r="AL64" s="37"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="38"/>
+      <c r="AO64" s="38"/>
+      <c r="AP64" s="37"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="38"/>
+      <c r="AS64" s="39"/>
+    </row>
+    <row r="65" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="37"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="37"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="38"/>
+      <c r="AS65" s="39"/>
+    </row>
+    <row r="66" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="37"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="38"/>
+      <c r="AK66" s="38"/>
+      <c r="AL66" s="37"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="38"/>
+      <c r="AP66" s="37"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="38"/>
+      <c r="AS66" s="39"/>
+    </row>
+    <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="208">
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="AP62:AS62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="AP64:AS64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AC64"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AP65:AS65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="Z65:AC65"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egebo\Desktop\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80415AC-2D52-4219-B0E3-784F8FD56DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD2880-575D-484E-B487-5FBB9E5523CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>Nr.</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Fr 26.04.2024</t>
   </si>
   <si>
-    <t>02.05.2024</t>
-  </si>
-  <si>
-    <t>03.05.2024</t>
-  </si>
-  <si>
     <t>06.05.2024</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>Testkonzept</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Analyse des bestehenden Source-Codes von HelpDeskZ.</t>
   </si>
   <si>
@@ -287,12 +278,6 @@
     <t>Konzept erstellen davor, danach</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Auswertung</t>
   </si>
   <si>
@@ -309,6 +294,24 @@
   </si>
   <si>
     <t>Fazit</t>
+  </si>
+  <si>
+    <t>Do 02.05.2024</t>
+  </si>
+  <si>
+    <t>Fr 03.05.2024</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,49 +1215,49 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
       <c r="V2" s="40" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="W2" s="41"/>
       <c r="X2" s="41"/>
       <c r="Y2" s="41"/>
       <c r="Z2" s="40" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>
       <c r="AC2" s="41"/>
       <c r="AD2" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="41"/>
       <c r="AF2" s="41"/>
       <c r="AG2" s="41"/>
       <c r="AH2" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>
       <c r="AK2" s="41"/>
       <c r="AL2" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="41"/>
       <c r="AN2" s="41"/>
       <c r="AO2" s="41"/>
       <c r="AP2" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ2" s="41"/>
       <c r="AR2" s="41"/>
@@ -1271,133 +1274,133 @@
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="R3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="V3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="Z3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="AD3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="AH3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="AL3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="AP3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AS3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="49"/>
@@ -1492,10 +1495,10 @@
     <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -1592,10 +1595,10 @@
     <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -1692,10 +1695,10 @@
     <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31"/>
       <c r="B10" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -1898,10 +1901,10 @@
     <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="24">
         <v>1</v>
@@ -2000,10 +2003,10 @@
     <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="24">
         <v>2</v>
@@ -2101,13 +2104,13 @@
     </row>
     <row r="18" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="24">
         <v>4</v>
@@ -2206,10 +2209,10 @@
     <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="24">
         <v>2</v>
@@ -2308,10 +2311,10 @@
     <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="24">
         <v>2</v>
@@ -2408,10 +2411,10 @@
     <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31"/>
       <c r="B24" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="24">
         <v>2</v>
@@ -2472,7 +2475,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="10"/>
@@ -2508,10 +2511,10 @@
     <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="24">
         <v>2</v>
@@ -2573,7 +2576,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="10"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="6"/>
@@ -2608,10 +2611,10 @@
     <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="24">
         <v>2</v>
@@ -2674,7 +2677,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2707,13 +2710,13 @@
     </row>
     <row r="30" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
@@ -2777,7 +2780,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="10"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -2810,10 +2813,10 @@
     <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="24">
         <v>1</v>
@@ -2877,7 +2880,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="10"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -2909,13 +2912,13 @@
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" s="24">
         <v>2</v>
@@ -3012,10 +3015,10 @@
     <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" s="24">
         <v>8</v>
@@ -3112,10 +3115,10 @@
     <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D38" s="24">
         <v>8</v>
@@ -3212,10 +3215,10 @@
     <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="24">
         <v>4</v>
@@ -3312,10 +3315,10 @@
     <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="33" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D42" s="24">
         <v>4</v>
@@ -3411,13 +3414,13 @@
     </row>
     <row r="44" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" s="24">
         <v>2</v>
@@ -3514,10 +3517,10 @@
     <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="33" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" s="24">
         <v>8</v>
@@ -3613,13 +3616,13 @@
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D48" s="24">
         <v>2</v>
@@ -3716,10 +3719,10 @@
     <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="56"/>
       <c r="B50" s="33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D50" s="24">
         <v>2</v>
@@ -3816,10 +3819,10 @@
     <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="56"/>
       <c r="B52" s="33" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D52" s="24">
         <v>2</v>
@@ -3916,10 +3919,10 @@
     <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="56"/>
       <c r="B54" s="33" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D54" s="24">
         <v>2</v>
@@ -4016,10 +4019,10 @@
     <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="56"/>
       <c r="B56" s="33" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D56" s="24">
         <v>2</v>

--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag6\IPA-Dok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag7\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A24F4-03E1-43C7-8CE3-0DFC04E5F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E680B846-99BC-4442-B6C2-2A4F8664C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -680,107 +680,101 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,151 +1125,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="43" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="43" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="43" t="s">
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="43" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="43" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="43" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="45"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="43"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="37" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="37" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="37" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="37" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="39"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="37"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1405,16 +1399,16 @@
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="32">
         <v>9</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1458,10 +1452,10 @@
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1505,16 +1499,16 @@
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="32">
         <v>2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="32">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
@@ -1560,10 +1554,10 @@
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1607,16 +1601,16 @@
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1660,10 +1654,10 @@
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1707,16 +1701,16 @@
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
       <c r="F10" s="10"/>
@@ -1762,10 +1756,10 @@
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="18"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1811,16 +1805,16 @@
       <c r="A12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
@@ -1866,10 +1860,10 @@
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1913,16 +1907,16 @@
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -1968,10 +1962,10 @@
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="5"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
@@ -2015,16 +2009,16 @@
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="32">
         <v>2</v>
       </c>
       <c r="F16" s="5"/>
@@ -2070,10 +2064,10 @@
     </row>
     <row r="17" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2119,16 +2113,16 @@
       <c r="A18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="32">
         <v>4</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="32">
         <v>4.5</v>
       </c>
       <c r="F18" s="5"/>
@@ -2174,10 +2168,10 @@
     </row>
     <row r="19" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="12"/>
@@ -2221,16 +2215,16 @@
     </row>
     <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="32">
         <v>2</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="32">
         <v>2</v>
       </c>
       <c r="F20" s="5"/>
@@ -2276,10 +2270,10 @@
     </row>
     <row r="21" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2323,16 +2317,16 @@
     </row>
     <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="32">
         <v>2</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="32">
         <v>2</v>
       </c>
       <c r="F22" s="5"/>
@@ -2378,10 +2372,10 @@
     </row>
     <row r="23" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2425,16 +2419,16 @@
     </row>
     <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="32">
         <v>2</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="32">
         <v>2</v>
       </c>
       <c r="F24" s="5"/>
@@ -2480,10 +2474,10 @@
     </row>
     <row r="25" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2527,16 +2521,16 @@
     </row>
     <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="32">
         <v>2</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="5"/>
@@ -2582,10 +2576,10 @@
     </row>
     <row r="27" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2629,16 +2623,16 @@
     </row>
     <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="32">
         <v>2</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="32">
         <v>2</v>
       </c>
       <c r="F28" s="5"/>
@@ -2684,10 +2678,10 @@
     </row>
     <row r="29" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2733,16 +2727,16 @@
       <c r="A30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="32">
         <v>1</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="5"/>
@@ -2788,10 +2782,10 @@
     </row>
     <row r="31" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2835,16 +2829,16 @@
     </row>
     <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="5"/>
@@ -2890,10 +2884,10 @@
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2939,16 +2933,16 @@
       <c r="A34" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="32">
         <v>2</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="5"/>
@@ -2994,10 +2988,10 @@
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3041,16 +3035,16 @@
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="32">
         <v>8.75</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="32">
         <v>10.75</v>
       </c>
       <c r="F36" s="5"/>
@@ -3096,10 +3090,10 @@
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -3143,16 +3137,18 @@
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="32">
         <v>8</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="32">
+        <v>6</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3196,10 +3192,10 @@
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3243,16 +3239,18 @@
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="32">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="32">
+        <v>2</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3274,10 +3272,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="55"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="9"/>
@@ -3296,10 +3294,10 @@
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3322,7 +3320,7 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="55"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3343,16 +3341,18 @@
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="32">
         <v>2</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="32">
+        <v>2</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3376,7 +3376,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="28"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3424,7 +3424,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="5"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="9"/>
@@ -3445,16 +3445,18 @@
       <c r="A44" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="32">
         <v>2</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="32">
+        <v>2</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3498,10 +3500,10 @@
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3527,7 +3529,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
+      <c r="AE45" s="12"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="5"/>
@@ -3545,16 +3547,18 @@
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="28"/>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="32">
         <v>8</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="32">
+        <v>4</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3598,10 +3602,10 @@
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="29"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3628,8 +3632,8 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="9"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="13"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
@@ -3644,19 +3648,19 @@
       <c r="AS47" s="9"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="32">
         <v>2</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3699,11 +3703,11 @@
       <c r="AS48" s="9"/>
     </row>
     <row r="49" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="53"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3746,17 +3750,17 @@
       <c r="AS49" s="9"/>
     </row>
     <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="32">
         <v>2</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3799,11 +3803,11 @@
       <c r="AS50" s="9"/>
     </row>
     <row r="51" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="53"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3846,17 +3850,17 @@
       <c r="AS51" s="9"/>
     </row>
     <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="53"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="32">
         <v>2</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3899,11 +3903,11 @@
       <c r="AS52" s="9"/>
     </row>
     <row r="53" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="53"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3946,17 +3950,17 @@
       <c r="AS53" s="9"/>
     </row>
     <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="53"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="32">
         <v>2</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3999,11 +4003,11 @@
       <c r="AS54" s="9"/>
     </row>
     <row r="55" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="53"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4046,17 +4050,17 @@
       <c r="AS55" s="9"/>
     </row>
     <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="53"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="32">
         <v>2</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -4099,11 +4103,11 @@
       <c r="AS56" s="9"/>
     </row>
     <row r="57" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -4146,17 +4150,17 @@
       <c r="AS57" s="9"/>
     </row>
     <row r="58" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="32">
         <v>4</v>
       </c>
-      <c r="E58" s="23"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -4193,17 +4197,17 @@
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="9"/>
-      <c r="AP58" s="55"/>
+      <c r="AP58" s="5"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="9"/>
     </row>
     <row r="59" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -4256,46 +4260,46 @@
         <v>80.75</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="36"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="51"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="50"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="51"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="50"/>
+      <c r="AM60" s="51"/>
+      <c r="AN60" s="51"/>
+      <c r="AO60" s="51"/>
+      <c r="AP60" s="50"/>
+      <c r="AQ60" s="51"/>
+      <c r="AR60" s="51"/>
+      <c r="AS60" s="52"/>
     </row>
     <row r="61" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -4303,46 +4307,46 @@
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="34"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
-      <c r="AO61" s="35"/>
-      <c r="AP61" s="34"/>
-      <c r="AQ61" s="35"/>
-      <c r="AR61" s="35"/>
-      <c r="AS61" s="36"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="50"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="52"/>
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
@@ -4352,46 +4356,46 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="35"/>
-      <c r="AJ62" s="35"/>
-      <c r="AK62" s="35"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="35"/>
-      <c r="AN62" s="35"/>
-      <c r="AO62" s="35"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="35"/>
-      <c r="AR62" s="35"/>
-      <c r="AS62" s="36"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="50"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="52"/>
     </row>
     <row r="63" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
@@ -4399,46 +4403,46 @@
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="34"/>
-      <c r="AQ63" s="35"/>
-      <c r="AR63" s="35"/>
-      <c r="AS63" s="36"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="51"/>
+      <c r="AN63" s="51"/>
+      <c r="AO63" s="51"/>
+      <c r="AP63" s="50"/>
+      <c r="AQ63" s="51"/>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="52"/>
     </row>
     <row r="64" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
@@ -4446,46 +4450,46 @@
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="35"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="36"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="50"/>
+      <c r="AM64" s="51"/>
+      <c r="AN64" s="51"/>
+      <c r="AO64" s="51"/>
+      <c r="AP64" s="50"/>
+      <c r="AQ64" s="51"/>
+      <c r="AR64" s="51"/>
+      <c r="AS64" s="52"/>
     </row>
     <row r="65" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
@@ -4493,46 +4497,46 @@
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="35"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="36"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="50"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="50"/>
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="51"/>
+      <c r="AK65" s="51"/>
+      <c r="AL65" s="50"/>
+      <c r="AM65" s="51"/>
+      <c r="AN65" s="51"/>
+      <c r="AO65" s="51"/>
+      <c r="AP65" s="50"/>
+      <c r="AQ65" s="51"/>
+      <c r="AR65" s="51"/>
+      <c r="AS65" s="52"/>
     </row>
     <row r="66" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -4540,102 +4544,184 @@
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="35"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="36"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="50"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
+      <c r="AK66" s="51"/>
+      <c r="AL66" s="50"/>
+      <c r="AM66" s="51"/>
+      <c r="AN66" s="51"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="50"/>
+      <c r="AQ66" s="51"/>
+      <c r="AR66" s="51"/>
+      <c r="AS66" s="52"/>
     </row>
     <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AP65:AS65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="Z65:AC65"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP64:AS64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AC64"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="AP62:AS62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
@@ -4660,146 +4746,64 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="AP60:AS60"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="R60:U60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="V60:Y60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AP62:AS62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="Z61:AC61"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AH61:AK61"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="AP64:AS64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="R65:U65"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="R64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="Z64:AC64"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="AP65:AS65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="V65:Y65"/>
-    <mergeCell ref="Z65:AC65"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AH62:AK62"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag6\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A24F4-03E1-43C7-8CE3-0DFC04E5F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337DD621-85C9-4CF6-AB67-05CA97B74417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -775,12 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3152,7 +3146,9 @@
       <c r="D38" s="23">
         <v>8</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="23">
+        <v>7</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3223,7 +3219,7 @@
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
-      <c r="AC39" s="9"/>
+      <c r="AC39" s="13"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -3252,7 +3248,9 @@
       <c r="D40" s="23">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="23">
+        <v>1</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3274,10 +3272,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="55"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="9"/>
@@ -3322,7 +3320,7 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="55"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3376,7 +3374,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -4193,7 +4191,7 @@
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="9"/>
-      <c r="AP58" s="55"/>
+      <c r="AP58" s="5"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="9"/>
@@ -4596,15 +4594,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -4615,7 +4604,10 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A48:A57"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
@@ -4636,6 +4628,10 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
@@ -4746,14 +4742,6 @@
     <mergeCell ref="AD63:AG63"/>
     <mergeCell ref="AH63:AK63"/>
     <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -4763,6 +4751,12 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C28:C29"/>
@@ -4777,6 +4771,10 @@
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>

--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag6\IPA-Dok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag8\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A24F4-03E1-43C7-8CE3-0DFC04E5F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5EB29-FE09-4167-9487-70E8D221DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -777,9 +777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3112,7 +3109,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="21"/>
@@ -3152,7 +3149,9 @@
       <c r="D38" s="23">
         <v>8</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="23">
+        <v>6</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3252,7 +3251,9 @@
       <c r="D40" s="23">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="23">
+        <v>2</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3274,10 +3275,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="55"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="9"/>
@@ -3322,7 +3323,7 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="55"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3352,7 +3353,9 @@
       <c r="D42" s="23">
         <v>2</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="23">
+        <v>2</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3376,7 +3379,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3424,7 +3427,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="5"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="9"/>
@@ -3454,7 +3457,9 @@
       <c r="D44" s="23">
         <v>2</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="23">
+        <v>2</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3527,7 +3532,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
+      <c r="AE45" s="12"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="5"/>
@@ -3554,7 +3559,9 @@
       <c r="D46" s="23">
         <v>8</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="23">
+        <v>4</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3628,11 +3635,11 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
       <c r="AK47" s="9"/>
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
@@ -3735,7 +3742,7 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-      <c r="AK49" s="9"/>
+      <c r="AK49" s="13"/>
       <c r="AL49" s="5"/>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
@@ -3836,7 +3843,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="5"/>
+      <c r="AL51" s="55"/>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="9"/>
@@ -4193,7 +4200,7 @@
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="9"/>
-      <c r="AP58" s="55"/>
+      <c r="AP58" s="5"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="9"/>
@@ -4596,15 +4603,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -4615,7 +4613,10 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A48:A57"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
@@ -4636,6 +4637,10 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
@@ -4746,14 +4751,6 @@
     <mergeCell ref="AD63:AG63"/>
     <mergeCell ref="AH63:AK63"/>
     <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -4763,6 +4760,12 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C28:C29"/>
@@ -4777,6 +4780,10 @@
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>

--- a/Ege Zeitplan.xlsx
+++ b/Ege Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag6\IPA-Dok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\010-IPA\IPA-Dokumentation\Tag9\IPA-Dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A24F4-03E1-43C7-8CE3-0DFC04E5F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A5E7D-B290-4FB3-BDF0-681A77F590A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB9C6447-36BB-4D67-BBCE-08BA330606A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Nr.</t>
   </si>
@@ -680,32 +680,95 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -713,74 +776,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E2A04-0C7F-49B8-B0E7-B380E8D10631}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,151 +1131,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="43" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="43" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="43" t="s">
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="43" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="43" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="43" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="45"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="43"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="37" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="37" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="37" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="37" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="37" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="37" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="39"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="37"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="32">
         <v>9</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="6" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="32">
         <v>2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="32">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1607,16 +1607,16 @@
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1699,24 +1699,24 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
       <c r="AS9" s="9"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
       <c r="F10" s="10"/>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="18"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1811,16 +1811,16 @@
       <c r="A12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="32">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1913,16 +1913,16 @@
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="5"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
@@ -2015,16 +2015,16 @@
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="32">
         <v>2</v>
       </c>
       <c r="F16" s="5"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="17" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2119,16 +2119,16 @@
       <c r="A18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="32">
         <v>4</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="32">
         <v>4.5</v>
       </c>
       <c r="F18" s="5"/>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="19" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="12"/>
@@ -2221,16 +2221,16 @@
     </row>
     <row r="20" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="32">
         <v>2</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="32">
         <v>2</v>
       </c>
       <c r="F20" s="5"/>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="21" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2323,16 +2323,16 @@
     </row>
     <row r="22" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="32">
         <v>2</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="32">
         <v>2</v>
       </c>
       <c r="F22" s="5"/>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="23" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2425,16 +2425,16 @@
     </row>
     <row r="24" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="32">
         <v>2</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="32">
         <v>2</v>
       </c>
       <c r="F24" s="5"/>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="25" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2527,16 +2527,16 @@
     </row>
     <row r="26" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="32">
         <v>2</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="5"/>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="27" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2629,16 +2629,16 @@
     </row>
     <row r="28" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="32">
         <v>2</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="32">
         <v>2</v>
       </c>
       <c r="F28" s="5"/>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="29" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2733,16 +2733,16 @@
       <c r="A30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="32">
         <v>1</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="5"/>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="31" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2835,16 +2835,16 @@
     </row>
     <row r="32" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="32">
         <v>1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="5"/>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2939,16 +2939,16 @@
       <c r="A34" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="32">
         <v>2</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="5"/>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="32">
         <v>8.75</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="32">
         <v>10.75</v>
       </c>
       <c r="F36" s="5"/>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="37" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -3112,7 +3112,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="21"/>
@@ -3143,16 +3143,18 @@
     </row>
     <row r="38" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="32">
         <v>8</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="32">
+        <v>6</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3196,10 +3198,10 @@
     </row>
     <row r="39" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3243,16 +3245,18 @@
     </row>
     <row r="40" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="32">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="32">
+        <v>2</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3274,10 +3278,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="11"/>
-      <c r="AD40" s="55"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="9"/>
@@ -3296,10 +3300,10 @@
     </row>
     <row r="41" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3322,7 +3326,7 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="55"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3343,16 +3347,18 @@
     </row>
     <row r="42" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="32">
         <v>2</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="32">
+        <v>2</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3376,7 +3382,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3396,10 +3402,10 @@
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="28"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3424,7 +3430,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="5"/>
+      <c r="AD43" s="12"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="9"/>
@@ -3445,16 +3451,18 @@
       <c r="A44" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="32">
         <v>2</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="32">
+        <v>2</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3498,10 +3506,10 @@
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3527,7 +3535,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
+      <c r="AE45" s="12"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="9"/>
       <c r="AH45" s="5"/>
@@ -3545,16 +3553,18 @@
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="28"/>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="32">
         <v>8</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="32">
+        <v>10</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3598,10 +3608,10 @@
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="29"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3628,11 +3638,11 @@
       <c r="AC47" s="9"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
       <c r="AK47" s="9"/>
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
@@ -3644,19 +3654,21 @@
       <c r="AS47" s="9"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="32">
         <v>2</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="32">
+        <v>2</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3699,11 +3711,11 @@
       <c r="AS48" s="9"/>
     </row>
     <row r="49" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="53"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3735,7 +3747,7 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-      <c r="AK49" s="9"/>
+      <c r="AK49" s="13"/>
       <c r="AL49" s="5"/>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
@@ -3746,17 +3758,19 @@
       <c r="AS49" s="9"/>
     </row>
     <row r="50" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="32">
         <v>2</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3799,11 +3813,11 @@
       <c r="AS50" s="9"/>
     </row>
     <row r="51" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="53"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3836,7 +3850,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="5"/>
+      <c r="AL51" s="12"/>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="9"/>
@@ -3846,17 +3860,19 @@
       <c r="AS51" s="9"/>
     </row>
     <row r="52" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="53"/>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="32">
         <v>2</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3899,11 +3915,11 @@
       <c r="AS52" s="9"/>
     </row>
     <row r="53" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="53"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3936,7 +3952,7 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="9"/>
-      <c r="AL53" s="5"/>
+      <c r="AL53" s="12"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="9"/>
@@ -3946,17 +3962,17 @@
       <c r="AS53" s="9"/>
     </row>
     <row r="54" spans="1:45" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="53"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="32">
         <v>2</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3999,11 +4015,11 @@
       <c r="AS54" s="9"/>
     </row>
     <row r="55" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="53"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -4037,8 +4053,8 @@
       <c r="AJ55" s="5"/>
       <c r="AK55" s="9"/>
       <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
       <c r="AO55" s="9"/>
       <c r="AP55" s="14"/>
       <c r="AQ55" s="5"/>
@@ -4046,17 +4062,17 @@
       <c r="AS55" s="9"/>
     </row>
     <row r="56" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="53"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="32">
         <v>2</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -4099,11 +4115,11 @@
       <c r="AS56" s="9"/>
     </row>
     <row r="57" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -4143,20 +4159,20 @@
       <c r="AP57" s="5"/>
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
-      <c r="AS57" s="9"/>
+      <c r="AS57" s="13"/>
     </row>
     <row r="58" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="32">
         <v>4</v>
       </c>
-      <c r="E58" s="23"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -4193,17 +4209,17 @@
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
       <c r="AO58" s="9"/>
-      <c r="AP58" s="55"/>
+      <c r="AP58" s="5"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
       <c r="AS58" s="9"/>
     </row>
     <row r="59" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -4243,7 +4259,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
       <c r="AR59" s="5"/>
-      <c r="AS59" s="9"/>
+      <c r="AS59" s="13"/>
     </row>
     <row r="60" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
@@ -4256,46 +4272,46 @@
         <v>80.75</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="35"/>
-      <c r="AF60" s="35"/>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="35"/>
-      <c r="AJ60" s="35"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="35"/>
-      <c r="AN60" s="35"/>
-      <c r="AO60" s="35"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="35"/>
-      <c r="AR60" s="35"/>
-      <c r="AS60" s="36"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="51"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="50"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="51"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="50"/>
+      <c r="AM60" s="51"/>
+      <c r="AN60" s="51"/>
+      <c r="AO60" s="51"/>
+      <c r="AP60" s="50"/>
+      <c r="AQ60" s="51"/>
+      <c r="AR60" s="51"/>
+      <c r="AS60" s="52"/>
     </row>
     <row r="61" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -4303,46 +4319,46 @@
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="34"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="35"/>
-      <c r="AN61" s="35"/>
-      <c r="AO61" s="35"/>
-      <c r="AP61" s="34"/>
-      <c r="AQ61" s="35"/>
-      <c r="AR61" s="35"/>
-      <c r="AS61" s="36"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="50"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="52"/>
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
@@ -4352,140 +4368,144 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="35"/>
-      <c r="AF62" s="35"/>
-      <c r="AG62" s="35"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="35"/>
-      <c r="AJ62" s="35"/>
-      <c r="AK62" s="35"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="35"/>
-      <c r="AN62" s="35"/>
-      <c r="AO62" s="35"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="35"/>
-      <c r="AR62" s="35"/>
-      <c r="AS62" s="36"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="50"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="52"/>
     </row>
     <row r="63" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="55"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="34"/>
-      <c r="AQ63" s="35"/>
-      <c r="AR63" s="35"/>
-      <c r="AS63" s="36"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="51"/>
+      <c r="AN63" s="51"/>
+      <c r="AO63" s="51"/>
+      <c r="AP63" s="50"/>
+      <c r="AQ63" s="51"/>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="52"/>
     </row>
     <row r="64" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="56"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="34"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="35"/>
-      <c r="AO64" s="35"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="35"/>
-      <c r="AR64" s="35"/>
-      <c r="AS64" s="36"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="50"/>
+      <c r="AM64" s="51"/>
+      <c r="AN64" s="51"/>
+      <c r="AO64" s="51"/>
+      <c r="AP64" s="50"/>
+      <c r="AQ64" s="51"/>
+      <c r="AR64" s="51"/>
+      <c r="AS64" s="52"/>
     </row>
     <row r="65" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
@@ -4493,46 +4513,46 @@
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="35"/>
-      <c r="AR65" s="35"/>
-      <c r="AS65" s="36"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="50"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="50"/>
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="51"/>
+      <c r="AK65" s="51"/>
+      <c r="AL65" s="50"/>
+      <c r="AM65" s="51"/>
+      <c r="AN65" s="51"/>
+      <c r="AO65" s="51"/>
+      <c r="AP65" s="50"/>
+      <c r="AQ65" s="51"/>
+      <c r="AR65" s="51"/>
+      <c r="AS65" s="52"/>
     </row>
     <row r="66" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -4540,102 +4560,194 @@
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="35"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="36"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="50"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
+      <c r="AK66" s="51"/>
+      <c r="AL66" s="50"/>
+      <c r="AM66" s="51"/>
+      <c r="AN66" s="51"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="50"/>
+      <c r="AQ66" s="51"/>
+      <c r="AR66" s="51"/>
+      <c r="AS66" s="52"/>
     </row>
     <row r="67" spans="1:45" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AP65:AS65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="Z65:AC65"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AP64:AS64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="AP63:AS63"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="Z64:AC64"/>
+    <mergeCell ref="AH64:AK64"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="AP62:AS62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="V63:Y63"/>
+    <mergeCell ref="Z63:AC63"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="V62:Y62"/>
+    <mergeCell ref="Z62:AC62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="Z61:AC61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="V60:Y60"/>
+    <mergeCell ref="Z60:AC60"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
@@ -4660,149 +4772,57 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="AP60:AS60"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="R60:U60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="V60:Y60"/>
-    <mergeCell ref="Z60:AC60"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AP62:AS62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="V63:Y63"/>
-    <mergeCell ref="Z63:AC63"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="R62:U62"/>
-    <mergeCell ref="V62:Y62"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="Z61:AC61"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AH61:AK61"/>
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="AP64:AS64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="R65:U65"/>
-    <mergeCell ref="AP63:AS63"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="R64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="Z64:AC64"/>
-    <mergeCell ref="AH64:AK64"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="AP65:AS65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="V65:Y65"/>
-    <mergeCell ref="Z65:AC65"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AH62:AK62"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>